--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -543,11 +543,10 @@
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="3" max="16384" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="1" max="1" width="9.850625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.41" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -164,7 +164,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="11">
+  <x:cellStyleXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -198,8 +198,38 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="11">
+  <x:cellXfs count="21">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -242,6 +272,46 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -550,52 +620,52 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">
-      <x:c r="B2" s="1" t="s">
+      <x:c r="B2" s="11" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="B3" s="2" t="s">
+      <x:c r="B3" s="12" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="3" t="s">
+      <x:c r="B4" s="13" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="4" t="s">
+      <x:c r="B5" s="14" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="5" t="s">
+      <x:c r="B6" s="15" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="6" t="s">
+      <x:c r="B7" s="16" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="7" t="s">
+      <x:c r="B8" s="17" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="B9" s="8" t="s">
+      <x:c r="B9" s="18" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="B10" s="9" t="s">
+      <x:c r="B10" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="B11" s="10" t="s">
+      <x:c r="B11" s="20" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -164,7 +164,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="21">
+  <x:cellStyleXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -198,38 +198,8 @@
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
+  <x:cellXfs count="11">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -272,46 +242,6 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -620,52 +550,52 @@
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">
-      <x:c r="B2" s="11" t="s">
+      <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:2">
-      <x:c r="B3" s="12" t="s">
+      <x:c r="B3" s="2" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="B4" s="13" t="s">
+      <x:c r="B4" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="B5" s="14" t="s">
+      <x:c r="B5" s="4" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="B6" s="15" t="s">
+      <x:c r="B6" s="5" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="B7" s="16" t="s">
+      <x:c r="B7" s="6" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:2">
-      <x:c r="B8" s="17" t="s">
+      <x:c r="B8" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="B9" s="18" t="s">
+      <x:c r="B9" s="8" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:2">
-      <x:c r="B10" s="19" t="s">
+      <x:c r="B10" s="9" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="B11" s="20" t="s">
+      <x:c r="B11" s="10" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -603,14 +603,7 @@
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter differentOddEven="1" differentFirst="1" scaleWithDoc="1" alignWithMargins="1">
-    <x:oddHeader/>
-    <x:oddFooter/>
-    <x:evenHeader/>
-    <x:evenFooter/>
-    <x:firstHeader/>
-    <x:firstFooter/>
-  </x:headerFooter>
+  <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
 </file>
--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.1090625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <x:bookViews>
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="33.1090625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="33.10125" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -546,7 +546,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="33.10125" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="29.410625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -53,7 +53,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
@@ -131,6 +131,13 @@
     </x:font>
     <x:font>
       <x:vertAlign val="superscript"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
       <x:sz val="11"/>
       <x:color rgb="FF000000"/>
       <x:name val="Calibri"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -548,7 +548,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B11"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -553,7 +553,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="29.410625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.380625000000002" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -172,82 +172,82 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="11">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
-      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Styles/StyleFont.xlsx
@@ -553,7 +553,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="28.380625000000002" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="28.380625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="2" spans="1:2">
